--- a/Exam/ข้อสอบทุน.xlsx
+++ b/Exam/ข้อสอบทุน.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ponmorin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProject\Contextual-Retrieval\Exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAE073D-4CBF-944A-A4DA-BA04D64E4F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A0B10E-96C1-4CA7-A0EF-CD5542C904DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="26940" windowHeight="16260" xr2:uid="{DD8AA6BD-4386-1949-8D67-03744173C2CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD8AA6BD-4386-1949-8D67-03744173C2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>input</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>ชื่อเต็มของประกาศที่กำหนดหลักเกณฑ์การจ่ายทุนสำหรับส่งเสริมผู้เรียนในปี พ.ศ. 2565 คือข้อใด?</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
     <t>(B) 3 ประเภท</t>
   </si>
   <si>
-    <t>ข้อใดคือประเภทของทุนที่ไม่ได้ระบุในประกาศ(หลักเกณฑ์การจ่ายทุนพัฒนาและส่งเสริมศักยภาพผู้เรียน)?</t>
-  </si>
-  <si>
     <t>(A) ทุนฝึกอบรม
 (B) ทุนพัฒนาบุคลากร
 (C) ทุนสำหรับนำเสนอผลงานวิจัยนวัตกรรม
@@ -227,9 +221,6 @@
     <t>(C) ทั้ง (A) และ (B)</t>
   </si>
   <si>
-    <t>ข้อใดกล่าวถูกต้องเกี่ยวกับค่าใช้จ่ายในการเดินทางรายวันในกรุงเทพมหานคร?</t>
-  </si>
-  <si>
     <t>(A) ไม่ครอบคลุมในทุกประเภททุน
 (B) ครอบคลุมเฉพาะทุนฝึกอบรม
 (C) ครอบคลุมเฉพาะทุนสำหรับนำเสนอผลงานวิจัย
@@ -335,9 +326,6 @@
     <t>(B) คณะกรรมการพิจารณาทุน</t>
   </si>
   <si>
-    <t>ข้อใดเป็นความรับผิดชอบของผู้รับทุนที่ถูกระบุไว้ในประกาศ(หลักเกณฑ์การจ่ายทุนพัฒนาและส่งเสริมศักยภาพผู้เรียน)?</t>
-  </si>
-  <si>
     <t>(A) ส่งคืนทุนเมื่อไม่ได้ใช้งานตามวัตถุประสงค์
 (B) นำผลงานไปเผยแพร่ผ่านสื่อออนไลน์
 (C) รายงานผลการใช้ทุนภายในระยะเวลาที่กำหนด
@@ -386,9 +374,6 @@
     <t>(C) 4 ประเภท</t>
   </si>
   <si>
-    <t>ข้อใดไม่ใช่ประเภทของทุนช่วยเหลือการศึกษาในประกาศนี้(หลักเกณฑ์การจ่ายทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์)?</t>
-  </si>
-  <si>
     <t>(A) ประเภท ก ค่าเล่าเรียนและค่าใช้จ่ายรายเดือน
 (B) ประเภท ข ค่าเล่าเรียนเท่านั้น
 (C) ประเภท ค ค่าหอพักสถาบัน
@@ -494,9 +479,6 @@
     <t>(B) คณะกรรมการพิจารณาทุนการศึกษา</t>
   </si>
   <si>
-    <t>ข้อใดถูกต้องเกี่ยวกับทุนค่าใช้จ่ายรายเดือนในกรณีที่ผู้เรียนได้รับทุนอื่นร่วมด้วย?</t>
-  </si>
-  <si>
     <t>(A) ไม่สามารถรับทุนช่วยเหลือการศึกษาได้
 (B) ต้องพิจารณาไม่เกินส่วนต่างจาก 60,000 บาทต่อปี
 (C) ต้องขออนุมัติเป็นกรณีพิเศษ
@@ -524,12 +506,6 @@
     <t>(C) กลั่นกรองคุณสมบัติผู้ขอทุน</t>
   </si>
   <si>
-    <t>ข้อใดไม่ใช่หน้าที่ของอธิการบดีในประกาศนี้(หลักเกณฑ์การจ่ายทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์)?</t>
-  </si>
-  <si>
-    <t>ข้อใดคือหลักเกณฑ์สำคัญในการขอรับทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์?</t>
-  </si>
-  <si>
     <t>(A) มีผลการเรียน GPA ไม่ต่ำกว่า 3.50
 (B) เป็นนักศึกษาที่มีสถานะทางการเงินขาดแคลนตามประกาศ
 (C) ต้องเป็นนักศึกษาปีที่ 4 ขึ้นไปเท่านั้น
@@ -773,9 +749,6 @@
     <t>(C) 90 ทุน</t>
   </si>
   <si>
-    <t>ทุนนี้(ส่งเสริมศักยภาพ)เหมาะสำหรับผู้สมัครประเภทใดเป็นหลัก?</t>
-  </si>
-  <si>
     <t>(A) ผู้ที่มีความสามารถทางวิชาการโดดเด่น
 (B) ผู้ที่เข้ารับการศึกษาในสาขาอาชีวะเท่านั้น
 (C) ผู้ที่แสดงความสามารถในสาขาที่สมัคร
@@ -1064,9 +1037,6 @@
     <t>(B) ทุกสิ้นภาคการศึกษา</t>
   </si>
   <si>
-    <t>ข้อใดเป็นเงื่อนไขเพิ่มเติมสำหรับผู้ที่ได้รับทุนประเภท ง?</t>
-  </si>
-  <si>
     <t>(A) ต้องมีคะแนนสอบ TOEIC ไม่ต่ำกว่า 600
 (B) ต้องพักในหอพักของสถาบันเท่านั้น
 (C) ต้องเข้าร่วมกิจกรรมพิเศษที่สถาบันจัด
@@ -1098,6 +1068,36 @@
   </si>
   <si>
     <t>(A) แจ้งขอยกเลิกสิทธิ์เป็นลายลักษณ์อักษร</t>
+  </si>
+  <si>
+    <t>ref_answer</t>
+  </si>
+  <si>
+    <t>ทุนพัฒนาบุคลากร อยูในประกาศ หลักเกณฑ์การจ่ายทุนพัฒนาและส่งเสริมศักยภาพผู้เรียน หรือไม่</t>
+  </si>
+  <si>
+    <t>ค่าใช้จ่ายในการเดินทางรายวันในกรุงเทพมหานคร ครอบคลุมทุกประเภททุนหรือไม่</t>
+  </si>
+  <si>
+    <t>ความรับผิดชอบของผู้รับทุนที่ถูกระบุไว้ในประกาศ(หลักเกณฑ์การจ่ายทุนพัฒนาและส่งเสริมศักยภาพผู้เรียน) คืออะไร</t>
+  </si>
+  <si>
+    <t>ประเภทของทุนช่วยเหลือการศึกษาในประกาศ หลักเกณฑ์การจ่ายทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์ คือทุนประเภทอะไร</t>
+  </si>
+  <si>
+    <t>ทุนค่าใช้จ่ายรายเดือนในกรณีที่ผู้เรียนได้รับทุนอื่นร่วมด้วยต้องทำยังไง</t>
+  </si>
+  <si>
+    <t>อะไรไม่ใช่หน้าที่ของอธิการบดีในประกาศนี้(หลักเกณฑ์การจ่ายทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์)?</t>
+  </si>
+  <si>
+    <t>อะไรคือหลักเกณฑ์สำคัญในการขอรับทุนช่วยเหลือการศึกษาสำหรับผู้ขาดแคลนทุนทรัพย์?</t>
+  </si>
+  <si>
+    <t>ทุนส่งเสริมศักยภาพเหมาะสำหรับผู้สมัครประเภทใดเป็นหลัก?</t>
+  </si>
+  <si>
+    <t>อะไรคือเงื่อนไขเพิ่มเติมสำหรับผู้ที่ได้รับทุนประเภท ง?</t>
   </si>
 </sst>
 </file>
@@ -1209,9 +1209,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1249,7 +1249,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1355,7 +1355,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1497,7 +1497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1508,18 +1508,18 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" customWidth="1"/>
-    <col min="2" max="2" width="93.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="93.125" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" customWidth="1"/>
+    <col min="4" max="4" width="42.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1530,1324 +1530,1324 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>258</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>122</v>
+        <v>262</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="133" customHeight="1" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="132.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="89.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="85" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
     </row>
   </sheetData>
